--- a/medicine/Pharmacie/Laboratoire_français_du_fractionnement_et_des_biotechnologies/Laboratoire_français_du_fractionnement_et_des_biotechnologies.xlsx
+++ b/medicine/Pharmacie/Laboratoire_français_du_fractionnement_et_des_biotechnologies/Laboratoire_français_du_fractionnement_et_des_biotechnologies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Laboratoire_fran%C3%A7ais_du_fractionnement_et_des_biotechnologies</t>
+          <t>Laboratoire_français_du_fractionnement_et_des_biotechnologies</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le LFB, historiquement laboratoire français du fractionnement et des biotechnologies, est un laboratoire français, dont l'activité est essentiellement tournée vers le fractionnement des protéines plasmatiques issues du plasma sanguin humain. Il dispose de l'exclusivité du fractionnement du plasma issu des dons de sang bénévoles, collectés sur le territoire français par l'Établissement français du sang.
-Le LFB est un acteur mondial du fractionnement plasmatique et de la fabrication de protéines thérapeutiques. Il extrait du plasma une gamme de médicaments, sur prescription hospitalière et indiqués dans le cadre d'environ 80 pathologies rares, dans les domaines de l'immunologie, des soins intensifs et de l'hémostase. LFB fait partie des 10 premiers groupes pharmaceutiques sur le marché hospitalier en France[3].
+Le LFB est un acteur mondial du fractionnement plasmatique et de la fabrication de protéines thérapeutiques. Il extrait du plasma une gamme de médicaments, sur prescription hospitalière et indiqués dans le cadre d'environ 80 pathologies rares, dans les domaines de l'immunologie, des soins intensifs et de l'hémostase. LFB fait partie des 10 premiers groupes pharmaceutiques sur le marché hospitalier en France.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Laboratoire_fran%C3%A7ais_du_fractionnement_et_des_biotechnologies</t>
+          <t>Laboratoire_français_du_fractionnement_et_des_biotechnologies</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Création</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jusqu'en 1993, les produits et dérivés plasmatiques étaient produits directement par les centres de transfusion sanguine, les produits étant considérés comme des dérivés du sang. La loi du 4 janvier 1993[5], sépare les activités à la suite du classement des protéines plasmatiques et de leurs dérivés en médicaments soumis à un contrôle de l'Agence nationale de sécurité du médicament et des produits de santé (ANSM) et devant être dûment autorisés à être commercialisés.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jusqu'en 1993, les produits et dérivés plasmatiques étaient produits directement par les centres de transfusion sanguine, les produits étant considérés comme des dérivés du sang. La loi du 4 janvier 1993, sépare les activités à la suite du classement des protéines plasmatiques et de leurs dérivés en médicaments soumis à un contrôle de l'Agence nationale de sécurité du médicament et des produits de santé (ANSM) et devant être dûment autorisés à être commercialisés.
 Le 20 janvier 1994 est créée la convention constitutive du groupement d'intérêt public LFB, et elle est approuvée. Le GIP est définitivement créé le 1er juin 1994.
 Le LFB devient une société anonyme en juillet 2006, à capitaux majoritairement publics, détenue à 100 % par l'État français. En septembre 2006, deux filiales sont créées : LFB Biomédicaments et LFB Biotechnologies.
 </t>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Laboratoire_fran%C3%A7ais_du_fractionnement_et_des_biotechnologies</t>
+          <t>Laboratoire_français_du_fractionnement_et_des_biotechnologies</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,16 +560,18 @@
           <t>Une nouvelle stratégie pour le LFB</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 22 novembre 2017, le Conseil d’administration du LFB a convoqué une Assemblée générale des actionnaires pour le 4 décembre 2017 pour proposer la désignation de Denis Delval comme administrateur[6].
-L’État a par la suite soumis au Conseil d’administration la proposition de nommer Denis Deval comme nouveau Président-Directeur général du LFB par décret du Président de la République[7], conformément à l’article 19 de l’ordonnance n°2014-948 du 20 août 2014 relative à la gouvernance et aux opérations sur le capital des sociétés à participation publique. Denis Delval est nommé en remplacement de Christian Béchon dont le second mandat est arrivé à échéance. À cette occasion Denis Delval déclare : « Conscient des enjeux que l’entreprise doit relever aujourd’hui, j’ai hâte de mobiliser les énergies en interne et faire réussir le Laboratoire en France et à l’international »[8].
-Le 6 février 2019, le LFB annonce son projet de transformation stratégique construit autour de grands axes prioritaires[9].
-La priorité donnée aux activités industrielles avec, notamment, un plan d’investissement en France pour la construction de l’usine d’Arras. Une usine pensée pour permettre l’augmentation des capacités de production du laboratoire et soutenir la croissance internationale[10].
-Le recentrage des activités du laboratoire sur son cœur de métier[10]: développer, produire et commercialiser des médicaments issus de protéine plasmatique ou protéine recombinante dérivées du sang.
-La consolidation des parts de marché du laboratoire sur le territoire français et un développement ciblé sur certains marchés à l’international[10]: les États-Unis, l’Allemagne, le Royaume-Uni, l’Espagne, l’Italie, la Belgique, la Turquie et le Mexique et en ciblant le développement de médicaments clés.
-La première application concrète de ce plan de transformation est la cession de CellforCure à Novartis le 1er avril 2019[11] dans le cadre du recentrage des activités du LFB sur son cœur de métier.
-Malgré ce virage stratégique, la structure se trouve en difficulté et est en discussion depuis plusieurs années avec ses créanciers afin de parvenir à se renflouer, avec un besoin de financement s'élevant à 990 millions d'euros en janvier 2021. Après avoir envisagé d'ouvrir le capital de l'entreprise aux capitaux privés en 2018, et devant l'échec de cette tentative, l’État projette début 2021 de recapitaliser le LFB à l'aide des banques à hauteur de 500 millions d'euros[12],[13].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 22 novembre 2017, le Conseil d’administration du LFB a convoqué une Assemblée générale des actionnaires pour le 4 décembre 2017 pour proposer la désignation de Denis Delval comme administrateur.
+L’État a par la suite soumis au Conseil d’administration la proposition de nommer Denis Deval comme nouveau Président-Directeur général du LFB par décret du Président de la République, conformément à l’article 19 de l’ordonnance n°2014-948 du 20 août 2014 relative à la gouvernance et aux opérations sur le capital des sociétés à participation publique. Denis Delval est nommé en remplacement de Christian Béchon dont le second mandat est arrivé à échéance. À cette occasion Denis Delval déclare : « Conscient des enjeux que l’entreprise doit relever aujourd’hui, j’ai hâte de mobiliser les énergies en interne et faire réussir le Laboratoire en France et à l’international ».
+Le 6 février 2019, le LFB annonce son projet de transformation stratégique construit autour de grands axes prioritaires.
+La priorité donnée aux activités industrielles avec, notamment, un plan d’investissement en France pour la construction de l’usine d’Arras. Une usine pensée pour permettre l’augmentation des capacités de production du laboratoire et soutenir la croissance internationale.
+Le recentrage des activités du laboratoire sur son cœur de métier: développer, produire et commercialiser des médicaments issus de protéine plasmatique ou protéine recombinante dérivées du sang.
+La consolidation des parts de marché du laboratoire sur le territoire français et un développement ciblé sur certains marchés à l’international: les États-Unis, l’Allemagne, le Royaume-Uni, l’Espagne, l’Italie, la Belgique, la Turquie et le Mexique et en ciblant le développement de médicaments clés.
+La première application concrète de ce plan de transformation est la cession de CellforCure à Novartis le 1er avril 2019 dans le cadre du recentrage des activités du LFB sur son cœur de métier.
+Malgré ce virage stratégique, la structure se trouve en difficulté et est en discussion depuis plusieurs années avec ses créanciers afin de parvenir à se renflouer, avec un besoin de financement s'élevant à 990 millions d'euros en janvier 2021. Après avoir envisagé d'ouvrir le capital de l'entreprise aux capitaux privés en 2018, et devant l'échec de cette tentative, l’État projette début 2021 de recapitaliser le LFB à l'aide des banques à hauteur de 500 millions d'euros,.
 </t>
         </is>
       </c>
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Laboratoire_fran%C3%A7ais_du_fractionnement_et_des_biotechnologies</t>
+          <t>Laboratoire_français_du_fractionnement_et_des_biotechnologies</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,10 +600,12 @@
           <t>LFB, Société anonyme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ordonnance n° 2005-866 du 28 juillet 2005 transforme le LFB en Société anonyme de droit privé et des filiales sont créées pour distinguer l'activité Fractionnement et l'activité R&amp;D.
-Au journal officiel du 29 juillet 2005 est publiée l'ordonnance 2005-866 du 28 juillet 2005 transformant le Groupement d'intérêt public dénommé « Laboratoire français du fractionnement et des biotechnologies » en société anonyme[14].
+Au journal officiel du 29 juillet 2005 est publiée l'ordonnance 2005-866 du 28 juillet 2005 transformant le Groupement d'intérêt public dénommé « Laboratoire français du fractionnement et des biotechnologies » en société anonyme.
 L'article L5124-14 du Code de la santé publique est modifié par ordonnance no 2005-866 du 28 juillet 2005 art. 3 (JORF 29 juillet 2005):
 […] « Une personne morale ayant pour objet l’activité de collecte de sang ou de ses composants ne peut pas détenir de participation directe ou indirecte dans la société anonyme Laboratoire français du fractionnement et des biotechnologies et dans les sociétés contrôlées par celle-ci au sens de l’article L. 233-3 du code de commerce.
 La société anonyme Laboratoire français du fractionnement et des biotechnologies et les sociétés contrôlées par celle-ci au sens de l’article L. 233-3 du code de commerce ne peuvent pas détenir de participation directe ou indirecte dans une personne morale ayant pour objet l’activité de collecte de sang ou de ses composants. »
@@ -610,7 +628,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Laboratoire_fran%C3%A7ais_du_fractionnement_et_des_biotechnologies</t>
+          <t>Laboratoire_français_du_fractionnement_et_des_biotechnologies</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -628,9 +646,11 @@
           <t>Composition du Conseil d'administration</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le Conseil d'administration du groupe comprend 8 membres dont 1 membre représentant l’État[15].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le Conseil d'administration du groupe comprend 8 membres dont 1 membre représentant l’État.
 Représentant de l'État
 Cédric GARCIN – Chargé de participations Énergie et Santé (EDF et LFB), APE
 Personnalités qualifiées nommées par l’Assemblée générale sur proposition de l’État
@@ -651,7 +671,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Laboratoire_fran%C3%A7ais_du_fractionnement_et_des_biotechnologies</t>
+          <t>Laboratoire_français_du_fractionnement_et_des_biotechnologies</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -669,7 +689,9 @@
           <t>Exclusivité du fractionnement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'article L. 5124-14 du code de la santé publique, autorise LFB Biomédicaments, la filiale du LFB qui est chargée du fractionnement du plasma, à fabriquer des médicaments à partir du sang ou de ses composants collectés par l'établissement français du sang.
 </t>
@@ -682,7 +704,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Laboratoire_fran%C3%A7ais_du_fractionnement_et_des_biotechnologies</t>
+          <t>Laboratoire_français_du_fractionnement_et_des_biotechnologies</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -700,7 +722,9 @@
           <t>Dispositif du donneur au patient dit « système général »</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le système général est un dispositif de sécurisation. Cela permet de suivre la qualité du plasma en tout temps. Il est composé de onze points principaux plus cinq points complémentaires :
 Sélection médicale du donneur
@@ -742,7 +766,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Laboratoire_fran%C3%A7ais_du_fractionnement_et_des_biotechnologies</t>
+          <t>Laboratoire_français_du_fractionnement_et_des_biotechnologies</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -760,19 +784,90 @@
           <t>Produits</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Le LFB fabrique et commercialise une gamme de médicaments dans trois domaines thérapeutiques.
-Hémostase
-Betafact - (facteur IX de coagulation humain)
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le LFB fabrique et commercialise une gamme de médicaments dans trois domaines thérapeutiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Laboratoire_français_du_fractionnement_et_des_biotechnologies</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laboratoire_fran%C3%A7ais_du_fractionnement_et_des_biotechnologies</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Produits</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Hémostase</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Betafact - (facteur IX de coagulation humain)
 Factane - (facteur VIII de coagulation humain)
 Wilfactin - (facteur Willebrand humain)
 Wilstart - (facteur Willebrand et facteur VIII de coagulation humains)
 Hemoleven - (facteur XI de coagulation humain)
 Alfalastin - (alpha 1-antitrypsine humaine)
-Sevenfact - (facteur de coagulation VIIa (recombinant)-jncw)
-Soins intensifs
-Aclotine - (antithrombine humaine)
+Sevenfact - (facteur de coagulation VIIa (recombinant)-jncw)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Laboratoire_français_du_fractionnement_et_des_biotechnologies</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laboratoire_fran%C3%A7ais_du_fractionnement_et_des_biotechnologies</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Produits</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Soins intensifs</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aclotine - (antithrombine humaine)
 Vialebex - (albumine humaine)
 Ydralbum - (albumine humaine)
 Clottafact - (fibrinogène humain)
@@ -783,69 +878,108 @@
 Ig Hépatite B IM - LFB - (immunoglobuline humaine de l'hépatite B IM)
 Atryn - (antithrombine recombinante)
 En France, LFB Biomédicaments commercialise le médicament de synthèse Arganova (agratoban monohydraté) dont l'AMM est détenue par le laboratoire Mitsubishi Pharma Europe.
-Immunologie
-Tegeline - (immunoglobuline humaine normale IV)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Laboratoire_français_du_fractionnement_et_des_biotechnologies</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laboratoire_fran%C3%A7ais_du_fractionnement_et_des_biotechnologies</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Produits</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Immunologie</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Tegeline - (immunoglobuline humaine normale IV)
 Clairyg - (immunoglobuline humaine normale IV)
 Iqymun - (immunoglobuline humaine normale IV liquide 10%)</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Laboratoire_fran%C3%A7ais_du_fractionnement_et_des_biotechnologies</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Laboratoire_fran%C3%A7ais_du_fractionnement_et_des_biotechnologies</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Laboratoire_français_du_fractionnement_et_des_biotechnologies</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laboratoire_fran%C3%A7ais_du_fractionnement_et_des_biotechnologies</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>En chiffres</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Le groupe LFB est le 6e acteur mondial dans le domaine des médicaments dérivés du plasma[16] ;
-3e laboratoire à l'hôpital en France[17].</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Laboratoire_fran%C3%A7ais_du_fractionnement_et_des_biotechnologies</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Laboratoire_fran%C3%A7ais_du_fractionnement_et_des_biotechnologies</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Le groupe LFB est le 6e acteur mondial dans le domaine des médicaments dérivés du plasma ;
+3e laboratoire à l'hôpital en France.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Laboratoire_français_du_fractionnement_et_des_biotechnologies</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laboratoire_fran%C3%A7ais_du_fractionnement_et_des_biotechnologies</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Implantations</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Le LFB compte en sus de son siège social situé aux Ulis (France, Essonne), cinq sites de bioproduction dans le monde :
 Les Ulis, site de production spécialisé dans les phases amont du fractionnement plasmatique; plateforme de fabrication de médicaments de thérapie cellulaire, filiale CELLforCURE ;
@@ -857,31 +991,33 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Laboratoire_fran%C3%A7ais_du_fractionnement_et_des_biotechnologies</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Laboratoire_fran%C3%A7ais_du_fractionnement_et_des_biotechnologies</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Laboratoire_français_du_fractionnement_et_des_biotechnologies</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laboratoire_fran%C3%A7ais_du_fractionnement_et_des_biotechnologies</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>G5</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Le laboratoire est membre du G5. Le G5 regroupe cinq acteurs du Médicament et de la recherche avancée sur le territoire français. Le but du groupement est de maintenir leurs centres de décision sur le territoire national. Toutes les entreprises adhérentes font de la recherche « leur priorité ».
 Le groupement fonde ses valeurs autour de neuf axes (cinq dans la charte fondatrice et quatre dans les objectifs &amp; missions) :
